--- a/pred_ohlcv/54_21/2019-10-28 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ETH ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-129.207142941948</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-120.221242941948</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-121.378442941948</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1494.586612033067</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1419.042612033067</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1308.76691791542</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1176.69221791542</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1275.27291791542</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1379.90771791542</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1415.95471791542</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1415.95471791542</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1464.60061791542</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1565.06071791542</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1807.72581791542</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1840.84851791542</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2054.182117915419</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2203.769817915419</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2477.55811791542</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2147.685303961931</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2073.649103961931</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1917.506103961931</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1807.515403961931</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2001.111103961931</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2004.531803961931</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1953.103403961931</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1884.497403961931</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1903.905767517694</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1951.814767517694</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2100.099267517694</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1632.256254707123</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1798.631273601785</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1707.139573601785</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1667.985673601785</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2447.740366587265</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2377.443566587265</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2401.841566587265</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2401.841566587265</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2382.587466587265</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2187.560866587265</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2302.718866587265</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2218.991866587265</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2190.490066587265</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2200.240366587265</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2195.379166587265</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2216.550666587265</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2215.883966587265</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2261.088266587265</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2247.352166587265</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2250.140366587265</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2204.909438015836</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2199.159690396789</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2464.175983001009</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2512.099989242372</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2483.327889242371</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2480.665187015938</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2483.295887015938</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2470.802687015938</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2455.050787015938</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2497.090841044374</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2500.308141044374</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2442.328841044374</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2267.848492846377</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2234.038190619944</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2081.496590619944</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2573.951107861324</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3531.715207861323</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3460.005069552473</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3465.920169552473</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3395.129669552473</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3362.044569552474</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2296.229523910136</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2407.422723910136</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2252.068823910136</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2046.836823910136</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2201.325823910136</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2210.72458635145</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2166.033248792765</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2166.033248792765</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1650.675148792765</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1275.094546920106</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1701.714100239485</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1701.714100239485</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1761.921100239485</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1571.665200239485</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1713.179900239485</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1707.882700239485</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1746.878900239485</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1743.569000239485</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1780.608900239485</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>3200.757353331639</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>3069.084153331639</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>3224.217453331639</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>3265.197353331639</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>3537.270853331639</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>3365.680253331639</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>3324.403353331639</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3341.661495000315</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3719.964195000316</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3556.486795000315</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3526.352695000315</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3582.731595000315</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3614.985495000315</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3488.381095000315</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4163.950121538477</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>4211.676521538477</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>4326.964821538477</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>4814.64462356426</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>4781.61762356426</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>4797.14962356426</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4723.09202356426</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>4734.992523564259</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4860.555921538477</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4852.645121538478</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4850.645121538478</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4850.630121538477</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>4957.219521538477</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>5001.012421538478</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>4921.814221538478</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>5449.746221538478</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>5532.114821538477</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>5532.114821538477</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>5531.814821538477</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>5540.875221538477</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>5639.878121538478</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>5620.857421538478</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>5639.593521538478</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>5639.593521538478</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>5635.991421538478</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>5635.991421538478</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>5620.656321538478</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>5518.107521538478</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>5518.112121538478</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>5518.112121538478</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>5503.188121538478</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>5491.664721538478</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>5491.664721538478</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>5470.301421538478</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>5470.301421538478</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>6475.657514845386</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>6469.452114845386</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>6469.550314845386</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>6451.940314845387</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>6453.526614845387</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>6365.381214845386</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>6284.733114845386</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4980.334116000663</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>4991.024316000663</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5030.033416000663</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>5069.324216000663</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>5201.207916000663</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>5082.973216000663</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>5082.973216000663</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>4975.409416000663</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>4953.341616000664</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>4999.815016000663</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>5289.092616000664</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5427.782516000664</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5419.983516000664</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5560.162391642288</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>5555.797891642288</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>5619.331991642288</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>5699.925591642288</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>5699.925591642288</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>5599.915691642288</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>5815.848291642288</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>5755.768691642288</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>6818.495886849545</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>6123.790586849545</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>6027.534086849545</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>6044.621586849545</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>6080.539886849545</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>6080.539886849545</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>6190.814377993456</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>6152.83919939567</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>6134.41499939567</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>6257.167499395669</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>5971.931699395669</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>5765.281448838048</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>5945.792674351822</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>5336.029874351821</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>3190.753629832757</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>3182.387029832757</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>3182.387029832757</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>3197.030729832757</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>3191.263429832757</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ETH ohlcv.xlsx
@@ -2628,7 +2628,7 @@
         <v>1494.586612033067</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1419.042612033067</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1308.76691791542</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1176.69221791542</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1275.27291791542</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1379.90771791542</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1415.95471791542</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1415.95471791542</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1464.60061791542</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1565.06071791542</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1807.72581791542</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1840.84851791542</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2054.182117915419</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2203.769817915419</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2477.55811791542</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2147.685303961931</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2073.649103961931</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1917.506103961931</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1807.515403961931</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2001.111103961931</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2004.531803961931</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1953.103403961931</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1884.497403961931</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1903.905767517694</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1951.814767517694</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2100.099267517694</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1632.256254707123</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1798.631273601785</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1707.139573601785</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1667.985673601785</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2377.443566587265</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2382.587466587265</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2187.560866587265</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2302.718866587265</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2254.185966587265</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2218.991866587265</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2190.490066587265</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2200.240366587265</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2195.379166587265</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2216.550666587265</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2215.883966587265</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2261.088266587265</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2247.352166587265</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2250.140366587265</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2204.909438015836</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2199.159690396789</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2173.006738015837</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2173.006738015837</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2142.054538015836</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2142.054538015836</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2057.956684896744</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2082.848784896744</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2082.848784896744</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2433.453383001009</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2483.557483001009</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2483.557483001009</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2464.175983001009</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2478.222519967834</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2482.875919967834</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2512.099989242372</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2483.327889242371</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2483.998687015938</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2480.665187015938</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2483.295887015938</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2470.802687015938</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2455.050787015938</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2497.090841044374</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2500.308141044374</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2442.328841044374</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2267.848492846377</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2234.038190619944</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2081.496590619944</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2127.571690619944</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2290.378007861323</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2270.110507861323</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2291.854807861323</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2270.358407861323</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-2084.782307861323</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2157.988107861323</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2174.266807861323</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2341.212907861323</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2277.923007861323</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2525.299207861323</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2613.364007861323</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2588.212107861324</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2573.951107861324</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3460.005069552473</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3465.920169552473</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3395.129669552473</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3362.044569552474</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2296.229523910136</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2407.422723910136</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2252.068823910136</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2046.836823910136</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2201.325823910136</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2210.72458635145</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2166.033248792765</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2166.033248792765</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1650.675148792765</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1275.094546920106</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1701.714100239485</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1701.714100239485</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1761.921100239485</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1571.665200239485</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1713.179900239485</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1707.882700239485</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1746.878900239485</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1743.569000239485</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1780.608900239485</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>3200.757353331639</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>3069.084153331639</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>3224.217453331639</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>3265.197353331639</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>3537.270853331639</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>3365.680253331639</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>3324.403353331639</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3341.661495000315</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3719.964195000316</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3556.486795000315</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3526.352695000315</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3582.731595000315</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3614.985495000315</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3488.381095000315</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>4095.391121538477</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4355.520521538477</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>4209.629421538477</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>4216.531121538477</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4163.950121538477</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>4211.676521538477</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>4163.811521538477</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>4326.964821538477</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>4814.64462356426</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>4781.61762356426</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>4797.14962356426</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4723.09202356426</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>4734.992523564259</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4728.43152356426</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4860.555921538477</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4852.645121538478</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4850.645121538478</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4850.630121538477</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>4957.219521538477</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>5001.012421538478</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>4921.814221538478</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>5449.746221538478</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>5532.114821538477</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>5532.114821538477</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>5531.814821538477</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>5540.875221538477</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>5639.878121538478</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>5620.857421538478</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>5639.593521538478</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>5639.593521538478</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>5635.991421538478</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>5635.991421538478</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>5620.656321538478</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>5518.107521538478</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>5518.112121538478</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>5518.112121538478</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>5503.188121538478</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>5491.664721538478</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>5491.664721538478</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>5470.301421538478</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>6469.452114845386</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4980.334116000663</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>4991.024316000663</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5030.033416000663</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>5069.324216000663</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>5201.207916000663</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>5082.973216000663</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>5082.973216000663</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>4975.409416000663</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>4953.341616000664</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>4999.815016000663</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>5289.092616000664</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5427.782516000664</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5419.983516000664</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5560.162391642288</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>5555.797891642288</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>5619.331991642288</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>5699.925591642288</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>5699.925591642288</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>5599.915691642288</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>5815.848291642288</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>5755.768691642288</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>6123.790586849545</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>6080.539886849545</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>6190.814377993456</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>6152.83919939567</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>6134.41499939567</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>6257.167499395669</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>5971.931699395669</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>5765.281448838048</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>3190.753629832757</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>3182.387029832757</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>3182.387029832757</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>3197.030729832757</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>3191.263429832757</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
